--- a/r/_index.xlsx
+++ b/r/_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncanrager/Desktop/GitHub/code-book/r/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255AAE90-D50F-904C-A816-D136E49BD1FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38164E00-50C2-3745-97F6-34744EC846A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{50E372D8-447F-7B41-AF14-19A237139805}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Import</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Make plot for each group</t>
-  </si>
-  <si>
-    <t>Basic template</t>
   </si>
   <si>
     <t>Basic plots with all the options</t>
@@ -225,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -243,6 +240,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -559,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B497272A-A337-F147-9D10-1CBFDC92CCA0}">
-  <dimension ref="B2:G40"/>
+  <dimension ref="B2:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,36 +591,36 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -628,8 +631,8 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -641,55 +644,55 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="10" spans="2:7" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -697,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -705,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -713,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -721,15 +724,15 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -737,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -745,28 +748,28 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -774,7 +777,7 @@
     </row>
     <row r="23" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -782,37 +785,37 @@
     </row>
     <row r="24" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>39</v>
@@ -820,23 +823,23 @@
     </row>
     <row r="28" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>44</v>
@@ -844,39 +847,39 @@
     </row>
     <row r="31" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>37</v>
@@ -884,23 +887,23 @@
     </row>
     <row r="36" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>47</v>
@@ -908,18 +911,10 @@
     </row>
     <row r="39" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
